--- a/data/evaluation/evaluation_North_Winter_Clementines.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Clementines.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2470.097109787918</v>
+        <v>2475.9715467539</v>
       </c>
       <c r="C4" t="n">
-        <v>10446582.24157136</v>
+        <v>10419624.97754465</v>
       </c>
       <c r="D4" t="n">
-        <v>3232.117300094686</v>
+        <v>3227.944388855646</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03998580411588304</v>
+        <v>0.04246310774968332</v>
       </c>
     </row>
     <row r="5">
